--- a/trunk/Docs/Processes/Documents Measures.xlsx
+++ b/trunk/Docs/Processes/Documents Measures.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>Document Name</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Processes List</t>
+  </si>
+  <si>
+    <t>V0.2</t>
   </si>
 </sst>
 </file>
@@ -269,34 +272,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -307,6 +292,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -316,13 +302,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,12 +629,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
@@ -639,7 +644,7 @@
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.140625" bestFit="1" customWidth="1"/>
@@ -650,250 +655,256 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="10" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="5"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="20"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="6" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6" t="s">
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="6" t="s">
+      <c r="I3" s="19"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="6" t="s">
+      <c r="L3" s="19"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="7"/>
-      <c r="P3" s="5"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="20"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="20"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="16"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="12">
+      <c r="G6" s="7">
+        <v>41328</v>
+      </c>
+      <c r="H6" s="6">
         <v>1</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="13">
-        <v>41328</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
+      <c r="I6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="7">
+        <v>41332</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="15" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="6">
         <f>SUM(E6:E10)</f>
         <v>1</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6">
         <f>SUM(H6:H10)</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6">
         <f>SUM(K6:K10)</f>
         <v>0</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12">
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6">
         <f>SUM(N6:N10)</f>
         <v>0</v>
       </c>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -928,141 +939,141 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="12">
+      <c r="D14" s="14"/>
+      <c r="E14" s="6">
         <v>1</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="7">
         <v>41328</v>
       </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="15" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="6">
         <f>SUM(E14:E18)</f>
         <v>1</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6">
         <f>SUM(H14:H18)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12">
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6">
         <f>SUM(K14:K18)</f>
         <v>0</v>
       </c>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12">
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6">
         <f>SUM(N14:N18)</f>
         <v>0</v>
       </c>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E23">
@@ -1071,7 +1082,7 @@
       </c>
       <c r="H23">
         <f>SUM(H11,H19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23">
         <f>SUM(K11,K19)</f>
@@ -1084,6 +1095,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="F2:P2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:P3"/>
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="B14:B19"/>
     <mergeCell ref="C14:C19"/>
@@ -1092,12 +1109,6 @@
     <mergeCell ref="B6:B11"/>
     <mergeCell ref="C6:C11"/>
     <mergeCell ref="D6:D10"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="F2:P2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/trunk/Docs/Processes/Documents Measures.xlsx
+++ b/trunk/Docs/Processes/Documents Measures.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t>Document Name</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>V0.2</t>
+  </si>
+  <si>
+    <t>v0.3</t>
+  </si>
+  <si>
+    <t>Ready to Approval</t>
+  </si>
+  <si>
+    <t>V0.3</t>
   </si>
 </sst>
 </file>
@@ -293,6 +302,27 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -303,27 +333,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -627,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,56 +660,67 @@
     <col min="14" max="14" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="20"/>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="16"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="21" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="21" t="s">
+      <c r="I3" s="15"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="15"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="21" t="s">
+      <c r="O3" s="15"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="19"/>
-      <c r="P3" s="20"/>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R3" s="15"/>
+      <c r="S3" s="16"/>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -747,36 +767,48 @@
       <c r="P4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="16"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="Q4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="12"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="14"/>
+      <c r="B6" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="21"/>
       <c r="E6" s="6">
         <v>1</v>
       </c>
@@ -795,21 +827,30 @@
       <c r="J6" s="7">
         <v>41332</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
       <c r="N6" s="6"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="7">
+        <v>41333</v>
+      </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -817,14 +858,17 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="14"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -835,14 +879,17 @@
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="14"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -853,14 +900,17 @@
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="14"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -871,19 +921,22 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="6">
         <f>SUM(E6:E10)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -893,20 +946,23 @@
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="6">
-        <f>SUM(K6:K10)</f>
-        <v>0</v>
-      </c>
+      <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6">
         <f>SUM(N6:N10)</f>
         <v>0</v>
       </c>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6">
+        <f>SUM(Q6:Q10)</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -921,8 +977,11 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -937,18 +996,21 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="6">
         <v>1</v>
       </c>
@@ -965,14 +1027,17 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="14"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -983,14 +1048,17 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="14"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -1001,14 +1069,17 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="14"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -1019,14 +1090,17 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="14"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="21"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -1037,13 +1111,16 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="9" t="s">
         <v>14</v>
       </c>
@@ -1069,16 +1146,22 @@
         <f>SUM(N14:N18)</f>
         <v>0</v>
       </c>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6">
+        <f>SUM(Q14:Q18)</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E23">
         <f>SUM(E11,E19)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H23">
         <f>SUM(H11,H19)</f>
@@ -1092,15 +1175,13 @@
         <f>SUM(N11,N19)</f>
         <v>0</v>
       </c>
+      <c r="Q23">
+        <f>SUM(Q11,Q19)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="F2:P2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:P3"/>
+  <mergeCells count="15">
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="B14:B19"/>
     <mergeCell ref="C14:C19"/>
@@ -1109,6 +1190,13 @@
     <mergeCell ref="B6:B11"/>
     <mergeCell ref="C6:C11"/>
     <mergeCell ref="D6:D10"/>
+    <mergeCell ref="A5:S5"/>
+    <mergeCell ref="F2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="K3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/trunk/Docs/Processes/Documents Measures.xlsx
+++ b/trunk/Docs/Processes/Documents Measures.xlsx
@@ -30,9 +30,6 @@
     <t>Draft</t>
   </si>
   <si>
-    <t>Ready to Revision</t>
-  </si>
-  <si>
     <t>Baselined</t>
   </si>
   <si>
@@ -72,10 +69,13 @@
     <t>v0.3</t>
   </si>
   <si>
-    <t>Ready to Approval</t>
-  </si>
-  <si>
     <t>V0.3</t>
+  </si>
+  <si>
+    <t>Ready for Approval</t>
+  </si>
+  <si>
+    <t>Ready for Revision</t>
   </si>
 </sst>
 </file>
@@ -302,6 +302,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -321,18 +333,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -638,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,53 +672,53 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="16"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="20"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17" t="s">
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="19"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="19"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="16"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="19"/>
+      <c r="S3" s="20"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -728,92 +728,92 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="16"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="12"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="21"/>
+      <c r="C6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="14"/>
       <c r="E6" s="6">
         <v>1</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7">
         <v>41328</v>
@@ -822,7 +822,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J6" s="7">
         <v>41332</v>
@@ -838,15 +838,15 @@
       <c r="S6" s="8"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="21"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="6">
         <v>1</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="7">
         <v>41333</v>
@@ -865,10 +865,10 @@
       <c r="S7" s="8"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="21"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -886,10 +886,10 @@
       <c r="S8" s="8"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="21"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -907,10 +907,10 @@
       <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="21"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -928,11 +928,11 @@
       <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="6">
         <f>SUM(E6:E10)</f>
@@ -1001,21 +1001,21 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="18" t="s">
+      <c r="A14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="21"/>
+      <c r="C14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="14"/>
       <c r="E14" s="6">
         <v>1</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7">
         <v>41328</v>
@@ -1034,10 +1034,10 @@
       <c r="S14" s="8"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="21"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -1055,10 +1055,10 @@
       <c r="S15" s="8"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="21"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -1076,10 +1076,10 @@
       <c r="S16" s="8"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="21"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -1097,10 +1097,10 @@
       <c r="S17" s="8"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="21"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -1118,11 +1118,11 @@
       <c r="S18" s="8"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" s="6">
         <f>SUM(E14:E18)</f>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E23">
         <f>SUM(E11,E19)</f>
@@ -1182,6 +1182,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A5:S5"/>
+    <mergeCell ref="F2:S2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="K3:M3"/>
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="B14:B19"/>
     <mergeCell ref="C14:C19"/>
@@ -1190,13 +1197,6 @@
     <mergeCell ref="B6:B11"/>
     <mergeCell ref="C6:C11"/>
     <mergeCell ref="D6:D10"/>
-    <mergeCell ref="A5:S5"/>
-    <mergeCell ref="F2:S2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="K3:M3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/trunk/Docs/Processes/Documents Measures.xlsx
+++ b/trunk/Docs/Processes/Documents Measures.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -10,12 +10,12 @@
     <sheet name="Folha2" sheetId="2" r:id="rId1"/>
     <sheet name="Folha3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Document Name</t>
   </si>
@@ -53,20 +53,23 @@
     <t>V0,3</t>
   </si>
   <si>
-    <t>V0,1</t>
-  </si>
-  <si>
     <t>Documents State</t>
   </si>
   <si>
     <t>Global Change Rate</t>
+  </si>
+  <si>
+    <t>V0,2</t>
+  </si>
+  <si>
+    <t>Vision and Scope</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,7 +94,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -179,11 +182,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -194,6 +236,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -203,9 +248,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -295,7 +340,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -330,7 +374,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -506,14 +549,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
@@ -529,17 +572,17 @@
     <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1">
+      <c r="F2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,50 +611,50 @@
       <c r="J3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="L3" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="9">
-        <v>3</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="9">
+      <c r="D4" s="6">
+        <v>2</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="12">
         <f>COUNTIF(B4:B26,"Draft")</f>
-        <v>1</v>
-      </c>
-      <c r="G4" s="9">
+        <v>2</v>
+      </c>
+      <c r="G4" s="13">
         <f>COUNTIF(B4:B26,"Ready for Revision")</f>
         <v>1</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="13">
         <f>COUNTIF(B4:B26,"Ready for Approval")</f>
         <v>0</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="13">
         <f>COUNTIF(B4:B26,"Baselined")</f>
         <v>0</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="14">
         <f>COUNTIF(B4:B26,"Deprecated")</f>
         <v>0</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="6">
         <f>COUNTIF(B4:B21,"Baselined")/(SUM(D4:D21))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -619,209 +662,217 @@
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -832,12 +883,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/Docs/Processes/Documents Measures.xlsx
+++ b/trunk/Docs/Processes/Documents Measures.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Document Name</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Vision and Scope</t>
+  </si>
+  <si>
+    <t>V0,4</t>
   </si>
 </sst>
 </file>
@@ -239,6 +242,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -248,9 +254,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,7 +556,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -574,13 +577,13 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:12" ht="15.75" thickBot="1">
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="11"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1">
       <c r="A3" s="1" t="s">
@@ -629,23 +632,23 @@
         <v>2</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="12">
+      <c r="F4" s="9">
         <f>COUNTIF(B4:B26,"Draft")</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="10">
+        <f>COUNTIF(B4:B26,"Ready for Revision")</f>
         <v>2</v>
       </c>
-      <c r="G4" s="13">
-        <f>COUNTIF(B4:B26,"Ready for Revision")</f>
-        <v>1</v>
-      </c>
-      <c r="H4" s="13">
+      <c r="H4" s="10">
         <f>COUNTIF(B4:B26,"Ready for Approval")</f>
         <v>0</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="10">
         <f>COUNTIF(B4:B26,"Baselined")</f>
         <v>0</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="11">
         <f>COUNTIF(B4:B26,"Deprecated")</f>
         <v>0</v>
       </c>
@@ -679,13 +682,13 @@
         <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D6" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
